--- a/Reactions.xlsx
+++ b/Reactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Pinacol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B831CE-15B0-8845-B986-57C6DE2DD27D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54413E2D-F8D3-E540-9F75-3B3DB18C11CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{880FC916-DB74-BB43-B11A-E924C9F7E5B9}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>A+A-&gt;AA</t>
   </si>
   <si>
-    <t>A+A+B-&gt;AAB</t>
-  </si>
-  <si>
     <t>El. Energy, h</t>
   </si>
   <si>
@@ -48,33 +45,9 @@
     <t>h2kjmol</t>
   </si>
   <si>
-    <t>AA+B-&gt;AAB</t>
-  </si>
-  <si>
-    <t>AB+A-&gt;AAB</t>
-  </si>
-  <si>
-    <t>A+A+B-&gt;C+D</t>
-  </si>
-  <si>
-    <t>CD-&gt;C+D</t>
-  </si>
-  <si>
-    <t>AAB-&gt;CD</t>
-  </si>
-  <si>
-    <t>AH..B--H(T) + A -&gt; CD</t>
-  </si>
-  <si>
-    <t>AH..B--H(T) -&gt; AH + B--H</t>
-  </si>
-  <si>
     <t>A+BH2-&gt;A..BH2</t>
   </si>
   <si>
-    <t>A (sr</t>
-  </si>
-  <si>
     <t>BH2 (sr)</t>
   </si>
   <si>
@@ -105,14 +78,131 @@
     <t>AAHH..B (sr)</t>
   </si>
   <si>
-    <t>AH..BH (??)</t>
+    <t>AH..BH (tu)</t>
+  </si>
+  <si>
+    <t>S**2</t>
+  </si>
+  <si>
+    <t>A (sr)</t>
+  </si>
+  <si>
+    <t>A+A+BH2-&gt;A..A..BH2</t>
+  </si>
+  <si>
+    <t>A..A+BH2-&gt;A..A..BH2</t>
+  </si>
+  <si>
+    <t>DE, eV</t>
+  </si>
+  <si>
+    <t>DE, nm</t>
+  </si>
+  <si>
+    <t>AH..BH (su)</t>
+  </si>
+  <si>
+    <t>AH..BH (su) -&gt; AH + BH</t>
+  </si>
+  <si>
+    <t>A..BH2 -&gt; AH..BH (su)</t>
+  </si>
+  <si>
+    <t>AH..BH (su) + A -&gt; AAHH..B</t>
+  </si>
+  <si>
+    <t>A..A..BH2 -&gt; AAHH..B</t>
+  </si>
+  <si>
+    <t>AAHH..B -&gt; AAHH + B</t>
+  </si>
+  <si>
+    <t>A + A + BH2 -&gt; AAHH + B</t>
+  </si>
+  <si>
+    <t>A..BH2 + A -&gt; A..A..BH2</t>
+  </si>
+  <si>
+    <t>A + BH2 -&gt; AH + BH</t>
+  </si>
+  <si>
+    <t>path 1</t>
+  </si>
+  <si>
+    <t>path 2</t>
+  </si>
+  <si>
+    <t>AH..BH..A</t>
+  </si>
+  <si>
+    <t>AH..BH (su) + A -&gt; AH..BH..A (su)</t>
+  </si>
+  <si>
+    <t>N-NH2</t>
+  </si>
+  <si>
+    <t>B -&gt; N-NH2</t>
+  </si>
+  <si>
+    <t>3 - addition of the second A</t>
+  </si>
+  <si>
+    <t>AH..BH..A (su) -&gt; AAHH..B</t>
+  </si>
+  <si>
+    <t>5 - dissociation of the product complex</t>
+  </si>
+  <si>
+    <t>4 - CC bond formation and second H-transfer</t>
+  </si>
+  <si>
+    <t>2 - excitation and first H-transfer</t>
+  </si>
+  <si>
+    <t>TS: AH..BH..A -&gt; AAHH..B</t>
+  </si>
+  <si>
+    <t>AH..BH..A (su) -&gt; TS -&gt; AAHH..B</t>
+  </si>
+  <si>
+    <t>1 - formation of weakly bound complex</t>
+  </si>
+  <si>
+    <t>2 - excitation and first H-trandfer</t>
+  </si>
+  <si>
+    <t>3 - CC bond formation and second H-transfer</t>
+  </si>
+  <si>
+    <t>A..A..BH2 -&gt; AH..BH..A (su)</t>
+  </si>
+  <si>
+    <t>3A - TS between 3 and 4</t>
+  </si>
+  <si>
+    <t>2A - TS between 2 and 3</t>
+  </si>
+  <si>
+    <t>4 - dissociation of the product complex</t>
+  </si>
+  <si>
+    <t>254 nm =</t>
+  </si>
+  <si>
+    <t>4.8813 eV</t>
+  </si>
+  <si>
+    <t>0.1794 hartree</t>
+  </si>
+  <si>
+    <t>471 kJ/mol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +213,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,12 +254,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,272 +578,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D290D77-F557-2D4F-AAA0-8B1C8DC92AC2}">
-  <dimension ref="B1:D26"/>
+  <dimension ref="B1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="4"/>
+    <col min="6" max="6" width="10.83203125" style="6"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3">
         <v>2625.5</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F1" s="6">
+        <v>27.211400000000001</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>-384.92558221299998</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>-111.877372912</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>-769.86529305299996</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>-496.81291338800003</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>-881.75871164099999</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>-385.48783481599997</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>-111.241818846</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>-496.747455806</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>2.0268000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
+        <v>-496.74781547200001</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.98660000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
         <v>-771.06116967000003</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
         <v>-110.647428863</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8">
         <v>-881.71738074999996</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
       <c r="C17">
+        <v>-881.72400242799995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-881.69421301499995</v>
+      </c>
+      <c r="D18">
+        <v>1.0213000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19">
+        <v>-881.69421288000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>-110.617176438</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>-881.65937796900005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <f>C7-C5-C4</f>
         <v>-9.9582630000440986E-3</v>
       </c>
-      <c r="D17" s="4">
-        <f>C17*$D$1</f>
+      <c r="E23" s="4">
+        <f>$C23*E$1</f>
         <v>-26.145419506615781</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="F23" s="6">
+        <f>$C23*F$1</f>
+        <v>-0.27097827779939998</v>
+      </c>
+      <c r="G23" s="4">
+        <f>$C23*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <f>C6-C4-C4</f>
         <v>-1.4128626999990956E-2</v>
       </c>
-      <c r="D18" s="4">
-        <f>C18*$D$1</f>
+      <c r="E24" s="4">
+        <f t="shared" ref="E24:G39" si="0">$C24*E$1</f>
         <v>-37.094710188476256</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.38445972074755391</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
         <f>C8-C4-C4-C5</f>
         <v>-3.0174303000023883E-2</v>
       </c>
-      <c r="D19" s="4">
-        <f>C19*$D$1</f>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
         <v>-79.222632526562705</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.82108502865484989</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
         <f>C8-C6-C5</f>
         <v>-1.6045676000032927E-2</v>
       </c>
-      <c r="D20" s="4">
-        <f t="shared" ref="D20:D26" si="0">C20*$D$1</f>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
         <v>-42.127922338086449</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.43662530790729598</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
         <f>C8-C7-C4</f>
         <v>-2.0216039999979785E-2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>-53.077213019946925</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <f>C14+C13-C4-C4-C5</f>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.55010675085544991</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <f>C15+C14-C4-C4-C5</f>
         <v>1.993880499998113E-2</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>52.349332527450457</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <f>C13+C14-C15</f>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.54256279837648658</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <f>C14+C15-C16</f>
         <v>8.7822169999753896E-3</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>23.057710733435385</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <f>C15-C8</f>
+      <c r="F29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23897641967313032</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <f>C16-C8</f>
         <v>4.1330891000029624E-2</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E30" s="4">
         <f t="shared" si="0"/>
         <v>108.51425432057778</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <f>C15-C12-C4</f>
-        <v>-4.4342730999971991E-2</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>-116.42184024042646</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26">
-        <f>C10+C9-C12</f>
-        <v>1.780214400002933E-2</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>46.739529072077005</v>
+      <c r="F30" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1246714073582063</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <f>C16-C13-C4</f>
+        <v>-4.3983064999963517E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>-115.47753715740421</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.1968407749400074</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <f>C10+C9-C13</f>
+        <v>1.8161810000037804E-2</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>47.683832155099253</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4942082766350287</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <f>C13-C7</f>
+        <v>6.5097916000013356E-2</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>170.91457845803507</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7714054314427634</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <f>C9+C10-C4-C5</f>
+        <v>7.3301463000007061E-2</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>192.45299110651854</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9946354302783922</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <f>C18-C13-C4</f>
+        <v>-2.0815329999948062E-2</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>-54.650648914863638</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.5664142707605867</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <f>C20-C15</f>
+        <v>3.0252425000000471E-2</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>79.42774183750123</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="0"/>
+        <v>0.82321083764501291</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <f>C16-C18</f>
+        <v>-2.3167735000015455E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>-60.826888242540576</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.63042650417942059</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <f>C21-C18</f>
+        <v>3.4835045999898284E-2</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>91.459413272732945</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9479103707216322</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <f>C18-C8</f>
+        <v>6.4498626000045078E-2</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="0"/>
+        <v>169.34114256311835</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7550979115376266</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Reactions.xlsx
+++ b/Reactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Pinacol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54413E2D-F8D3-E540-9F75-3B3DB18C11CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAD906E-00E6-7348-AF8C-875C504D751A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{880FC916-DB74-BB43-B11A-E924C9F7E5B9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>A+A-&gt;AA</t>
   </si>
@@ -93,9 +93,6 @@
     <t>A..A+BH2-&gt;A..A..BH2</t>
   </si>
   <si>
-    <t>DE, eV</t>
-  </si>
-  <si>
     <t>DE, nm</t>
   </si>
   <si>
@@ -196,12 +193,24 @@
   </si>
   <si>
     <t>471 kJ/mol</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>DE, kcal/mol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -254,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -264,6 +273,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D290D77-F557-2D4F-AAA0-8B1C8DC92AC2}">
-  <dimension ref="B1:M39"/>
+  <dimension ref="B1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,7 +600,7 @@
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="4"/>
     <col min="6" max="6" width="10.83203125" style="6"/>
-    <col min="7" max="7" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.2">
@@ -602,19 +613,23 @@
         <v>2625.5</v>
       </c>
       <c r="F1" s="6">
-        <v>27.211400000000001</v>
+        <v>627.50900000000001</v>
+      </c>
+      <c r="G1" s="9">
+        <f>1000000000*6.62607015E-34*299792458/(4.35974465E-18)</f>
+        <v>45.563353283750892</v>
       </c>
       <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
         <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
@@ -635,10 +650,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -729,7 +750,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>-496.74781547200001</v>
@@ -760,12 +781,6 @@
       </c>
       <c r="C16" s="8">
         <v>-881.71738074999996</v>
-      </c>
-      <c r="I16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -776,7 +791,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="8">
         <v>-881.69421301499995</v>
@@ -793,7 +808,7 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>-110.617176438</v>
@@ -804,7 +819,7 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>-881.65937796900005</v>
@@ -812,227 +827,204 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
+      <c r="C22">
+        <v>-881.65364074599995</v>
+      </c>
+      <c r="D22">
+        <f>E1*(C22-C21)</f>
+        <v>15.063078986753339</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="I24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <f>C7-C5-C4</f>
         <v>-9.9582630000440986E-3</v>
       </c>
-      <c r="E23" s="4">
-        <f>$C23*E$1</f>
+      <c r="E25" s="4">
+        <f>$C25*E$1</f>
         <v>-26.145419506615781</v>
       </c>
-      <c r="F23" s="6">
-        <f>$C23*F$1</f>
-        <v>-0.27097827779939998</v>
-      </c>
-      <c r="G23" s="4">
-        <f>$C23*G$1</f>
+      <c r="F25" s="10">
+        <f>$C25*F$1</f>
+        <v>-6.2488996568946726</v>
+      </c>
+      <c r="G25" s="4">
+        <f>G$1/$C25</f>
+        <v>-4575.4318080923476</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="C26">
         <f>C6-C4-C4</f>
         <v>-1.4128626999990956E-2</v>
       </c>
-      <c r="E24" s="4">
-        <f t="shared" ref="E24:G39" si="0">$C24*E$1</f>
+      <c r="E26" s="4">
+        <f t="shared" ref="E26:F41" si="0">$C26*E$1</f>
         <v>-37.094710188476256</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.38445972074755391</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="F26" s="10">
+        <f t="shared" si="0"/>
+        <v>-8.8658406001373251</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" ref="G26:G41" si="1">G$1/$C26</f>
+        <v>-3224.89604147523</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <f>C8-C4-C4-C5</f>
         <v>-3.0174303000023883E-2</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>-79.222632526562705</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.82108502865484989</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="F27" s="10">
+        <f t="shared" si="0"/>
+        <v>-18.934646701241988</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>-1510.0051617999206</v>
+      </c>
+      <c r="M27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <f>C8-C6-C5</f>
         <v>-1.6045676000032927E-2</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>-42.127922338086449</v>
       </c>
-      <c r="F26" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.43662530790729598</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
+      <c r="F28" s="10">
+        <f t="shared" si="0"/>
+        <v>-10.068806101104663</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>-2839.6032229279335</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
         <f>C8-C7-C4</f>
         <v>-2.0216039999979785E-2</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>-53.077213019946925</v>
       </c>
-      <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.55010675085544991</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
+      <c r="F29" s="10">
+        <f t="shared" si="0"/>
+        <v>-12.685747044347314</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>-2253.8218802394758</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
         <f>C15+C14-C4-C4-C5</f>
         <v>1.993880499998113E-2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E30" s="4">
         <f t="shared" si="0"/>
         <v>52.349332527450457</v>
       </c>
-      <c r="F28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.54256279837648658</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
+      <c r="F30" s="10">
+        <f t="shared" si="0"/>
+        <v>12.511779586733159</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>2285.1596815252474</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
         <f>C14+C15-C16</f>
         <v>8.7822169999753896E-3</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E31" s="4">
         <f t="shared" si="0"/>
         <v>23.057710733435385</v>
       </c>
-      <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>0.23897641967313032</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30">
+      <c r="F31" s="10">
+        <f t="shared" si="0"/>
+        <v>5.5109202074375565</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="1"/>
+        <v>5188.1379478414819</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
         <f>C16-C8</f>
         <v>4.1330891000029624E-2</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E32" s="4">
         <f t="shared" si="0"/>
         <v>108.51425432057778</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>1.1246714073582063</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31">
-        <f>C16-C13-C4</f>
-        <v>-4.3983064999963517E-2</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>-115.47753715740421</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.1968407749400074</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32">
-        <f>C10+C9-C13</f>
-        <v>1.8161810000037804E-2</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>47.683832155099253</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="0"/>
-        <v>0.4942082766350287</v>
+      <c r="F32" s="10">
+        <f t="shared" si="0"/>
+        <v>25.935506080537589</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1102.4043319975424</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
@@ -1040,167 +1032,209 @@
         <v>24</v>
       </c>
       <c r="C33">
+        <f>C16-C13-C4</f>
+        <v>-4.3983064999963517E-2</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>-115.47753715740421</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="0"/>
+        <v>-27.599769135062107</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="1"/>
+        <v>-1035.9294715770418</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <f>C10+C9-C13</f>
+        <v>1.8161810000037804E-2</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>47.683832155099253</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="0"/>
+        <v>11.396699231313722</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="1"/>
+        <v>2508.7451792335705</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
         <f>C13-C7</f>
         <v>6.5097916000013356E-2</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>170.91457845803507</v>
       </c>
-      <c r="F33" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7714054314427634</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34">
+      <c r="F35" s="10">
+        <f t="shared" si="0"/>
+        <v>40.849528171252381</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="1"/>
+        <v>699.92030595482572</v>
+      </c>
+      <c r="I35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
         <f>C9+C10-C4-C5</f>
         <v>7.3301463000007061E-2</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E36" s="4">
         <f t="shared" si="0"/>
         <v>192.45299110651854</v>
       </c>
-      <c r="F34" s="6">
-        <f t="shared" si="0"/>
-        <v>1.9946354302783922</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35">
+      <c r="F36" s="10">
+        <f t="shared" si="0"/>
+        <v>45.997327745671434</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="1"/>
+        <v>621.58859344657969</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
         <f>C18-C13-C4</f>
         <v>-2.0815329999948062E-2</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E37" s="4">
         <f t="shared" si="0"/>
         <v>-54.650648914863638</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.5664142707605867</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+      <c r="F37" s="10">
+        <f t="shared" si="0"/>
+        <v>-13.061806912937408</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="1"/>
+        <v>-2188.9325455740832</v>
+      </c>
+      <c r="I37" t="s">
         <v>36</v>
       </c>
-      <c r="C36">
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
         <f>C20-C15</f>
         <v>3.0252425000000471E-2</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E38" s="4">
         <f t="shared" si="0"/>
         <v>79.42774183750123</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="0"/>
-        <v>0.82321083764501291</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
+      <c r="F38" s="10">
+        <f t="shared" si="0"/>
+        <v>18.983668959325296</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="1"/>
+        <v>1506.1058174262123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <f>C16-C18</f>
         <v>-2.3167735000015455E-2</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E39" s="4">
         <f t="shared" si="0"/>
         <v>-60.826888242540576</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.63042650417942059</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>40</v>
-      </c>
-      <c r="M37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38">
+      <c r="F39" s="10">
+        <f t="shared" si="0"/>
+        <v>-14.537962222124698</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="1"/>
+        <v>-1966.6727577693935</v>
+      </c>
+      <c r="I39" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40">
         <f>C21-C18</f>
         <v>3.4835045999898284E-2</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E40" s="4">
         <f t="shared" si="0"/>
         <v>91.459413272732945</v>
       </c>
-      <c r="F38" s="6">
-        <f t="shared" si="0"/>
-        <v>0.9479103707216322</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="F40" s="10">
+        <f t="shared" si="0"/>
+        <v>21.859304880350173</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="1"/>
+        <v>1307.9745404637597</v>
+      </c>
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" t="s">
         <v>48</v>
       </c>
-      <c r="M38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39">
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
         <f>C18-C8</f>
         <v>6.4498626000045078E-2</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E41" s="4">
         <f t="shared" si="0"/>
         <v>169.34114256311835</v>
       </c>
-      <c r="F39" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7550979115376266</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>45</v>
+      <c r="F41" s="10">
+        <f t="shared" si="0"/>
+        <v>40.47346830266229</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="1"/>
+        <v>706.423626508246</v>
+      </c>
+      <c r="M41" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Reactions.xlsx
+++ b/Reactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Pinacol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAD906E-00E6-7348-AF8C-875C504D751A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C847AB4-9B08-D641-82A2-5DEED21FD3BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{880FC916-DB74-BB43-B11A-E924C9F7E5B9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>A+A-&gt;AA</t>
   </si>
@@ -202,14 +202,33 @@
   </si>
   <si>
     <t>DE, kcal/mol</t>
+  </si>
+  <si>
+    <t>A..BH2..A (su)</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>hartree</t>
+  </si>
+  <si>
+    <t>kcal/mol</t>
+  </si>
+  <si>
+    <t>kJ/mol</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -263,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,6 +294,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D290D77-F557-2D4F-AAA0-8B1C8DC92AC2}">
-  <dimension ref="B1:M41"/>
+  <dimension ref="B1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1230,11 +1251,643 @@
         <v>40.47346830266229</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="1"/>
+        <f>G$1/$C41</f>
         <v>706.423626508246</v>
       </c>
       <c r="M41" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="4">
+        <v>377.01</v>
+      </c>
+      <c r="F47" s="11">
+        <f>$G$1/$E47</f>
+        <v>0.12085449532837562</v>
+      </c>
+      <c r="G47" s="10">
+        <f>$F47*$F$1</f>
+        <v>75.837283509013659</v>
+      </c>
+      <c r="H47" s="12">
+        <f>F47*$E$1</f>
+        <v>317.30347748465022</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E48" s="4">
+        <v>375.53</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" ref="F48:F82" si="2">$G$1/$E48</f>
+        <v>0.12133079456701434</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" ref="G48:G82" si="3">$F48*$F$1</f>
+        <v>76.136165567952602</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" ref="H48:H82" si="4">F48*$E$1</f>
+        <v>318.55400113569618</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E49" s="4">
+        <v>370.12</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="2"/>
+        <v>0.12310427235423888</v>
+      </c>
+      <c r="G49" s="10">
+        <f t="shared" si="3"/>
+        <v>77.249038840736091</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="4"/>
+        <v>323.21026706605414</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E50" s="4">
+        <v>366.51</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" si="2"/>
+        <v>0.12431680795544704</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" si="3"/>
+        <v>78.009915843314616</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="4"/>
+        <v>326.39377928702623</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E51" s="4">
+        <v>333.51</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="2"/>
+        <v>0.13661765249543009</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" si="3"/>
+        <v>85.728806499754839</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="4"/>
+        <v>358.68964662675171</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E52" s="4">
+        <v>326.54000000000002</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" si="2"/>
+        <v>0.13953375783594932</v>
+      </c>
+      <c r="G52" s="10">
+        <f t="shared" si="3"/>
+        <v>87.55868884587872</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="4"/>
+        <v>366.34588119828493</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E53" s="4">
+        <v>324.17</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="2"/>
+        <v>0.14055388618240705</v>
+      </c>
+      <c r="G53" s="10">
+        <f t="shared" si="3"/>
+        <v>88.19882856443607</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="4"/>
+        <v>369.02422817190973</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E54" s="4">
+        <v>318.82</v>
+      </c>
+      <c r="F54" s="11">
+        <f t="shared" si="2"/>
+        <v>0.14291246874020103</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" si="3"/>
+        <v>89.678860346694805</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="4"/>
+        <v>375.21668667739777</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E55" s="4">
+        <v>311.29000000000002</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="2"/>
+        <v>0.14636947310787654</v>
+      </c>
+      <c r="G55" s="10">
+        <f t="shared" si="3"/>
+        <v>91.848161700450504</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="4"/>
+        <v>384.29305164472987</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E56" s="4">
+        <v>301.49</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="2"/>
+        <v>0.15112724562589436</v>
+      </c>
+      <c r="G56" s="10">
+        <f t="shared" si="3"/>
+        <v>94.833706775459348</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" si="4"/>
+        <v>396.78458339078566</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E57" s="4">
+        <v>300.27999999999997</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="2"/>
+        <v>0.15173622380361962</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" si="3"/>
+        <v>95.215846062785545</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="4"/>
+        <v>398.38345559640334</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E58" s="4">
+        <v>297.36</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="2"/>
+        <v>0.15322623514847622</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" si="3"/>
+        <v>96.150841591785166</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="4"/>
+        <v>402.29548038232434</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E59" s="4">
+        <v>293.26</v>
+      </c>
+      <c r="F59" s="11">
+        <f t="shared" si="2"/>
+        <v>0.15536845558122789</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" si="3"/>
+        <v>97.495104193320728</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="4"/>
+        <v>407.9198801285138</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E60" s="4">
+        <v>291.94</v>
+      </c>
+      <c r="F60" s="11">
+        <f t="shared" si="2"/>
+        <v>0.15607095048212266</v>
+      </c>
+      <c r="G60" s="10">
+        <f t="shared" si="3"/>
+        <v>97.93592606608631</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" si="4"/>
+        <v>409.76428049081306</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E61" s="4">
+        <v>285.47000000000003</v>
+      </c>
+      <c r="F61" s="11">
+        <f t="shared" si="2"/>
+        <v>0.15960820150541524</v>
+      </c>
+      <c r="G61" s="10">
+        <f t="shared" si="3"/>
+        <v>100.15558291846162</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="4"/>
+        <v>419.05133305246773</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E62" s="4">
+        <v>283.01</v>
+      </c>
+      <c r="F62" s="11">
+        <f t="shared" si="2"/>
+        <v>0.16099555946344968</v>
+      </c>
+      <c r="G62" s="10">
+        <f t="shared" si="3"/>
+        <v>101.02616252334984</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="4"/>
+        <v>422.69384137128714</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E63" s="4">
+        <v>280.2</v>
+      </c>
+      <c r="F63" s="11">
+        <f t="shared" si="2"/>
+        <v>0.16261011164793324</v>
+      </c>
+      <c r="G63" s="10">
+        <f t="shared" si="3"/>
+        <v>102.03930855008294</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="4"/>
+        <v>426.93284813164871</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E64" s="4">
+        <v>279.58</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="2"/>
+        <v>0.16297071780438835</v>
+      </c>
+      <c r="G64" s="10">
+        <f t="shared" si="3"/>
+        <v>102.26559215871393</v>
+      </c>
+      <c r="H64" s="4">
+        <f t="shared" si="4"/>
+        <v>427.87961959542162</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E65" s="4">
+        <v>279.3</v>
+      </c>
+      <c r="F65" s="11">
+        <f t="shared" si="2"/>
+        <v>0.16313409697010703</v>
+      </c>
+      <c r="G65" s="10">
+        <f t="shared" si="3"/>
+        <v>102.3681140556149</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="4"/>
+        <v>428.30857159501602</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E66" s="4">
+        <v>271.61</v>
+      </c>
+      <c r="F66" s="11">
+        <f t="shared" si="2"/>
+        <v>0.16775285624148922</v>
+      </c>
+      <c r="G66" s="10">
+        <f t="shared" si="3"/>
+        <v>105.26642706724067</v>
+      </c>
+      <c r="H66" s="4">
+        <f t="shared" si="4"/>
+        <v>440.43512406202996</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E67" s="4">
+        <v>270.23</v>
+      </c>
+      <c r="F67" s="11">
+        <f t="shared" si="2"/>
+        <v>0.1686095299698438</v>
+      </c>
+      <c r="G67" s="10">
+        <f t="shared" si="3"/>
+        <v>105.80399754184671</v>
+      </c>
+      <c r="H67" s="4">
+        <f t="shared" si="4"/>
+        <v>442.68432093582487</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E68" s="4">
+        <v>268.75</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="2"/>
+        <v>0.16953805873023589</v>
+      </c>
+      <c r="G68" s="10">
+        <f t="shared" si="3"/>
+        <v>106.38665769575159</v>
+      </c>
+      <c r="H68" s="4">
+        <f t="shared" si="4"/>
+        <v>445.12217319623431</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E69" s="4">
+        <v>263.24</v>
+      </c>
+      <c r="F69" s="11">
+        <f t="shared" si="2"/>
+        <v>0.17308673941555572</v>
+      </c>
+      <c r="G69" s="10">
+        <f t="shared" si="3"/>
+        <v>108.61348676391596</v>
+      </c>
+      <c r="H69" s="4">
+        <f t="shared" si="4"/>
+        <v>454.43923433554153</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E70" s="4">
+        <v>262.18</v>
+      </c>
+      <c r="F70" s="11">
+        <f t="shared" si="2"/>
+        <v>0.17378653323575746</v>
+      </c>
+      <c r="G70" s="10">
+        <f t="shared" si="3"/>
+        <v>109.05261368423693</v>
+      </c>
+      <c r="H70" s="4">
+        <f t="shared" si="4"/>
+        <v>456.27654301048119</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E71" s="4">
+        <v>261.04000000000002</v>
+      </c>
+      <c r="F71" s="11">
+        <f t="shared" si="2"/>
+        <v>0.17454548453781371</v>
+      </c>
+      <c r="G71" s="10">
+        <f t="shared" si="3"/>
+        <v>109.52886245683895</v>
+      </c>
+      <c r="H71" s="4">
+        <f t="shared" si="4"/>
+        <v>458.26916965402989</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E72" s="4">
+        <v>260.12</v>
+      </c>
+      <c r="F72" s="11">
+        <f t="shared" si="2"/>
+        <v>0.1751628220965358</v>
+      </c>
+      <c r="G72" s="10">
+        <f t="shared" si="3"/>
+        <v>109.91624733097508</v>
+      </c>
+      <c r="H72" s="4">
+        <f t="shared" si="4"/>
+        <v>459.88998941445476</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E73" s="4">
+        <v>258.79000000000002</v>
+      </c>
+      <c r="F73" s="11">
+        <f t="shared" si="2"/>
+        <v>0.17606303676243629</v>
+      </c>
+      <c r="G73" s="10">
+        <f t="shared" si="3"/>
+        <v>110.48114013575963</v>
+      </c>
+      <c r="H73" s="4">
+        <f t="shared" si="4"/>
+        <v>462.25350301977647</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E74" s="4">
+        <v>258.60000000000002</v>
+      </c>
+      <c r="F74" s="11">
+        <f t="shared" si="2"/>
+        <v>0.1761923947554172</v>
+      </c>
+      <c r="G74" s="10">
+        <f t="shared" si="3"/>
+        <v>110.5623134405771</v>
+      </c>
+      <c r="H74" s="4">
+        <f t="shared" si="4"/>
+        <v>462.59313243034785</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E75" s="4">
+        <v>258.25</v>
+      </c>
+      <c r="F75" s="11">
+        <f t="shared" si="2"/>
+        <v>0.17643118406099087</v>
+      </c>
+      <c r="G75" s="10">
+        <f t="shared" si="3"/>
+        <v>110.71215587892833</v>
+      </c>
+      <c r="H75" s="4">
+        <f t="shared" si="4"/>
+        <v>463.22007375213155</v>
+      </c>
+    </row>
+    <row r="76" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E76" s="4">
+        <v>255.93</v>
+      </c>
+      <c r="F76" s="11">
+        <f t="shared" si="2"/>
+        <v>0.17803052898742192</v>
+      </c>
+      <c r="G76" s="10">
+        <f t="shared" si="3"/>
+        <v>111.71575921436815</v>
+      </c>
+      <c r="H76" s="4">
+        <f t="shared" si="4"/>
+        <v>467.41915385647621</v>
+      </c>
+    </row>
+    <row r="77" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E77" s="4">
+        <v>255.71</v>
+      </c>
+      <c r="F77" s="11">
+        <f t="shared" si="2"/>
+        <v>0.17818369748445853</v>
+      </c>
+      <c r="G77" s="10">
+        <f t="shared" si="3"/>
+        <v>111.81187382477509</v>
+      </c>
+      <c r="H77" s="4">
+        <f t="shared" si="4"/>
+        <v>467.82129774544586</v>
+      </c>
+    </row>
+    <row r="78" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E78" s="4">
+        <v>250.86</v>
+      </c>
+      <c r="F78" s="11">
+        <f t="shared" si="2"/>
+        <v>0.1816286107141469</v>
+      </c>
+      <c r="G78" s="10">
+        <f t="shared" si="3"/>
+        <v>113.97358788062361</v>
+      </c>
+      <c r="H78" s="4">
+        <f t="shared" si="4"/>
+        <v>476.86591742999269</v>
+      </c>
+    </row>
+    <row r="79" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E79" s="4">
+        <v>242.67</v>
+      </c>
+      <c r="F79" s="11">
+        <f t="shared" si="2"/>
+        <v>0.18775849212408166</v>
+      </c>
+      <c r="G79" s="10">
+        <f t="shared" si="3"/>
+        <v>117.82014363429036</v>
+      </c>
+      <c r="H79" s="4">
+        <f t="shared" si="4"/>
+        <v>492.95992107177642</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E80" s="4">
+        <v>242.21</v>
+      </c>
+      <c r="F80" s="11">
+        <f t="shared" si="2"/>
+        <v>0.18811507899653562</v>
+      </c>
+      <c r="G80" s="10">
+        <f t="shared" si="3"/>
+        <v>118.04390510603707</v>
+      </c>
+      <c r="H80" s="12">
+        <f t="shared" si="4"/>
+        <v>493.89613990540425</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E81" s="4">
+        <v>240.46</v>
+      </c>
+      <c r="F81" s="11">
+        <f t="shared" si="2"/>
+        <v>0.18948412743803913</v>
+      </c>
+      <c r="G81" s="10">
+        <f t="shared" si="3"/>
+        <v>118.9029953245165</v>
+      </c>
+      <c r="H81" s="4">
+        <f t="shared" si="4"/>
+        <v>497.49057658857174</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E82" s="4">
+        <v>240.19</v>
+      </c>
+      <c r="F82" s="11">
+        <f t="shared" si="2"/>
+        <v>0.18969712845560138</v>
+      </c>
+      <c r="G82" s="10">
+        <f t="shared" si="3"/>
+        <v>119.03665538004597</v>
+      </c>
+      <c r="H82" s="12">
+        <f t="shared" si="4"/>
+        <v>498.04981076018146</v>
       </c>
     </row>
   </sheetData>

--- a/Reactions.xlsx
+++ b/Reactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Pinacol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C847AB4-9B08-D641-82A2-5DEED21FD3BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E902BC88-5EAE-1440-A55E-74D671AD2716}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{880FC916-DB74-BB43-B11A-E924C9F7E5B9}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>AAHH (sr)</t>
   </si>
   <si>
-    <t>B (sr)</t>
-  </si>
-  <si>
     <t>AAHH..B (sr)</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>B trans (sr)</t>
   </si>
 </sst>
 </file>
@@ -282,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -296,6 +296,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D290D77-F557-2D4F-AAA0-8B1C8DC92AC2}">
-  <dimension ref="B1:M82"/>
+  <dimension ref="B1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +625,7 @@
     <col min="7" max="7" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -641,51 +642,51 @@
         <v>45.563353283750892</v>
       </c>
       <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>-384.92558221299998</v>
@@ -693,7 +694,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -703,7 +704,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -713,7 +714,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -723,7 +724,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -733,7 +734,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -743,7 +744,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -753,14 +754,14 @@
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>-496.747455806</v>
@@ -769,9 +770,9 @@
         <v>2.0268000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>-496.74781547200001</v>
@@ -780,7 +781,7 @@
         <v>0.98660000000000003</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -788,195 +789,184 @@
         <v>-771.06116967000003</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>-110.647428863</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <f>EXP(-17000/(298*8.31))</f>
+        <v>1.0438294242300732E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
         <v>-881.71738074999996</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="C17">
+      <c r="C17" s="8">
+        <v>-881.72419565500002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18">
         <v>-881.72400242799995</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="8">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8">
         <v>-881.69421301499995</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>1.0213000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20">
         <v>-881.69421288000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20">
-        <v>-110.617176438</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C21">
+        <v>-110.617176438</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
         <v>-881.65937796900005</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22">
-        <v>-881.65364074599995</v>
-      </c>
-      <c r="D22">
-        <f>E1*(C22-C21)</f>
-        <v>15.063078986753339</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
+      <c r="C23">
+        <v>-881.65364074599995</v>
+      </c>
+      <c r="D23">
+        <f>E1*(C23-C22)</f>
+        <v>15.063078986753339</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-      <c r="I24" s="8" t="s">
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="I25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <f>C7-C5-C4</f>
         <v>-9.9582630000440986E-3</v>
       </c>
-      <c r="E25" s="4">
-        <f>$C25*E$1</f>
+      <c r="E26" s="4">
+        <f>$C26*E$1</f>
         <v>-26.145419506615781</v>
       </c>
-      <c r="F25" s="10">
-        <f>$C25*F$1</f>
+      <c r="F26" s="13">
+        <f>$C26*F$1</f>
         <v>-6.2488996568946726</v>
       </c>
-      <c r="G25" s="4">
-        <f>G$1/$C25</f>
+      <c r="G26" s="4">
+        <f>G$1/$C26</f>
         <v>-4575.4318080923476</v>
       </c>
-      <c r="I25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <f>C6-C4-C4</f>
         <v>-1.4128626999990956E-2</v>
       </c>
-      <c r="E26" s="4">
-        <f t="shared" ref="E26:F41" si="0">$C26*E$1</f>
+      <c r="E27" s="4">
+        <f t="shared" ref="E27:F42" si="0">$C27*E$1</f>
         <v>-37.094710188476256</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="13">
         <f t="shared" si="0"/>
         <v>-8.8658406001373251</v>
       </c>
-      <c r="G26" s="4">
-        <f t="shared" ref="G26:G41" si="1">G$1/$C26</f>
+      <c r="G27" s="4">
+        <f t="shared" ref="G27:G41" si="1">G$1/$C27</f>
         <v>-3224.89604147523</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
         <f>C8-C4-C4-C5</f>
         <v>-3.0174303000023883E-2</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>-79.222632526562705</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="13">
         <f t="shared" si="0"/>
         <v>-18.934646701241988</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <f t="shared" si="1"/>
         <v>-1510.0051617999206</v>
       </c>
-      <c r="M27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
+      <c r="M28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
         <f>C8-C6-C5</f>
         <v>-1.6045676000032927E-2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>-42.127922338086449</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="13">
         <f t="shared" si="0"/>
         <v>-10.068806101104663</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G29" s="4">
         <f t="shared" si="1"/>
         <v>-2839.6032229279335</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <f>C8-C7-C4</f>
-        <v>-2.0216039999979785E-2</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>-53.077213019946925</v>
-      </c>
-      <c r="F29" s="10">
-        <f t="shared" si="0"/>
-        <v>-12.685747044347314</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="1"/>
-        <v>-2253.8218802394758</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
@@ -984,20 +974,20 @@
         <v>27</v>
       </c>
       <c r="C30">
-        <f>C15+C14-C4-C4-C5</f>
-        <v>1.993880499998113E-2</v>
+        <f>C8-C7-C4</f>
+        <v>-2.0216039999979785E-2</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>52.349332527450457</v>
-      </c>
-      <c r="F30" s="10">
-        <f t="shared" si="0"/>
-        <v>12.511779586733159</v>
+        <v>-53.077213019946925</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="0"/>
+        <v>-12.685747044347314</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="1"/>
-        <v>2285.1596815252474</v>
+        <v>-2253.8218802394758</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
@@ -1005,26 +995,20 @@
         <v>26</v>
       </c>
       <c r="C31">
-        <f>C14+C15-C16</f>
-        <v>8.7822169999753896E-3</v>
+        <f>C15+C14-C4-C4-C5</f>
+        <v>1.993880499998113E-2</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="0"/>
-        <v>23.057710733435385</v>
-      </c>
-      <c r="F31" s="10">
-        <f t="shared" si="0"/>
-        <v>5.5109202074375565</v>
+        <v>52.349332527450457</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="0"/>
+        <v>12.511779586733159</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="1"/>
-        <v>5188.1379478414819</v>
-      </c>
-      <c r="I31" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31" t="s">
-        <v>49</v>
+        <v>2285.1596815252474</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
@@ -1032,860 +1016,887 @@
         <v>25</v>
       </c>
       <c r="C32">
-        <f>C16-C8</f>
-        <v>4.1330891000029624E-2</v>
+        <f>C14+C15-C17</f>
+        <v>1.559712200003105E-2</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>108.51425432057778</v>
-      </c>
-      <c r="F32" s="10">
-        <f t="shared" si="0"/>
-        <v>25.935506080537589</v>
+        <v>40.950243811081521</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" si="0"/>
+        <v>9.7873344291174842</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="1"/>
-        <v>1102.4043319975424</v>
+        <v>2921.2667108496162</v>
+      </c>
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>24</v>
       </c>
       <c r="C33">
-        <f>C16-C13-C4</f>
-        <v>-4.3983064999963517E-2</v>
+        <f>C17-C8</f>
+        <v>3.4515985999973964E-2</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>-115.47753715740421</v>
-      </c>
-      <c r="F33" s="10">
-        <f t="shared" si="0"/>
-        <v>-27.599769135062107</v>
+        <v>90.621721242931642</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="0"/>
+        <v>21.659091858857664</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="1"/>
-        <v>-1035.9294715770418</v>
+        <v>1320.065238286551</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34">
+        <f>C17-C13-C4</f>
+        <v>-5.0797970000019177E-2</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>-133.37007023505035</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="0"/>
+        <v>-31.876183356742036</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="1"/>
+        <v>-896.95224599986364</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
         <f>C10+C9-C13</f>
         <v>1.8161810000037804E-2</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>47.683832155099253</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="13">
         <f t="shared" si="0"/>
         <v>11.396699231313722</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G35" s="4">
         <f t="shared" si="1"/>
         <v>2508.7451792335705</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36">
         <f>C13-C7</f>
         <v>6.5097916000013356E-2</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <f t="shared" si="0"/>
         <v>170.91457845803507</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="13">
         <f t="shared" si="0"/>
         <v>40.849528171252381</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="4">
         <f t="shared" si="1"/>
         <v>699.92030595482572</v>
       </c>
-      <c r="I35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36">
+      <c r="I36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37">
         <f>C9+C10-C4-C5</f>
         <v>7.3301463000007061E-2</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <f t="shared" si="0"/>
         <v>192.45299110651854</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="13">
         <f t="shared" si="0"/>
         <v>45.997327745671434</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G37" s="4">
         <f t="shared" si="1"/>
         <v>621.58859344657969</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37">
-        <f>C18-C13-C4</f>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <f>C19-C13-C4</f>
         <v>-2.0815329999948062E-2</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="4">
         <f t="shared" si="0"/>
         <v>-54.650648914863638</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="13">
         <f t="shared" si="0"/>
         <v>-13.061806912937408</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G38" s="4">
         <f t="shared" si="1"/>
         <v>-2188.9325455740832</v>
       </c>
-      <c r="I37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="I38" t="s">
         <v>35</v>
       </c>
-      <c r="C38">
-        <f>C20-C15</f>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <f>C21-C15</f>
         <v>3.0252425000000471E-2</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <f t="shared" si="0"/>
         <v>79.42774183750123</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="13">
         <f t="shared" si="0"/>
         <v>18.983668959325296</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G39" s="4">
         <f t="shared" si="1"/>
         <v>1506.1058174262123</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39">
-        <f>C16-C18</f>
-        <v>-2.3167735000015455E-2</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="shared" si="0"/>
-        <v>-60.826888242540576</v>
-      </c>
-      <c r="F39" s="10">
-        <f t="shared" si="0"/>
-        <v>-14.537962222124698</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" si="1"/>
-        <v>-1966.6727577693935</v>
-      </c>
-      <c r="I39" t="s">
-        <v>39</v>
-      </c>
-      <c r="M39" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <f>C21-C18</f>
-        <v>3.4835045999898284E-2</v>
+        <f>C17-C19</f>
+        <v>-2.9982640000071115E-2</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="0"/>
-        <v>91.459413272732945</v>
-      </c>
-      <c r="F40" s="10">
-        <f t="shared" si="0"/>
-        <v>21.859304880350173</v>
+        <v>-78.719421320186711</v>
+      </c>
+      <c r="F40" s="13">
+        <f t="shared" si="0"/>
+        <v>-18.814376443804626</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="1"/>
-        <v>1307.9745404637597</v>
+        <v>-1519.6578181121749</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <f>C22-C19</f>
+        <v>3.4835045999898284E-2</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="0"/>
+        <v>91.459413272732945</v>
+      </c>
+      <c r="F41" s="13">
+        <f t="shared" si="0"/>
+        <v>21.859304880350173</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="1"/>
+        <v>1307.9745404637597</v>
+      </c>
+      <c r="I41" t="s">
         <v>46</v>
       </c>
-      <c r="C41">
-        <f>C18-C8</f>
+      <c r="M41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <f>C19-C8</f>
         <v>6.4498626000045078E-2</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <f t="shared" si="0"/>
         <v>169.34114256311835</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="13">
         <f t="shared" si="0"/>
         <v>40.47346830266229</v>
       </c>
-      <c r="G41" s="4">
-        <f>G$1/$C41</f>
+      <c r="G42" s="4">
+        <f>G$1/$C42</f>
         <v>706.423626508246</v>
       </c>
-      <c r="M41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E46" s="4" t="s">
+      <c r="M42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="G47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H47" t="s">
         <v>60</v>
       </c>
-      <c r="H46" t="s">
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="E48" s="4">
         <v>377.01</v>
       </c>
-      <c r="F47" s="11">
-        <f>$G$1/$E47</f>
+      <c r="F48" s="11">
+        <f>$G$1/$E48</f>
         <v>0.12085449532837562</v>
       </c>
-      <c r="G47" s="10">
-        <f>$F47*$F$1</f>
+      <c r="G48" s="10">
+        <f>$F48*$F$1</f>
         <v>75.837283509013659</v>
       </c>
-      <c r="H47" s="12">
-        <f>F47*$E$1</f>
+      <c r="H48" s="12">
+        <f>F48*$E$1</f>
         <v>317.30347748465022</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E48" s="4">
-        <v>375.53</v>
-      </c>
-      <c r="F48" s="11">
-        <f t="shared" ref="F48:F82" si="2">$G$1/$E48</f>
-        <v>0.12133079456701434</v>
-      </c>
-      <c r="G48" s="10">
-        <f t="shared" ref="G48:G82" si="3">$F48*$F$1</f>
-        <v>76.136165567952602</v>
-      </c>
-      <c r="H48" s="4">
-        <f t="shared" ref="H48:H82" si="4">F48*$E$1</f>
-        <v>318.55400113569618</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E49" s="4">
-        <v>370.12</v>
+        <v>375.53</v>
       </c>
       <c r="F49" s="11">
-        <f t="shared" si="2"/>
-        <v>0.12310427235423888</v>
+        <f t="shared" ref="F49:F83" si="2">$G$1/$E49</f>
+        <v>0.12133079456701434</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" si="3"/>
-        <v>77.249038840736091</v>
+        <f t="shared" ref="G49:G83" si="3">$F49*$F$1</f>
+        <v>76.136165567952602</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="4"/>
-        <v>323.21026706605414</v>
+        <f t="shared" ref="H49:H83" si="4">F49*$E$1</f>
+        <v>318.55400113569618</v>
       </c>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E50" s="4">
-        <v>366.51</v>
+        <v>370.12</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>0.12431680795544704</v>
+        <v>0.12310427235423888</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="3"/>
-        <v>78.009915843314616</v>
+        <v>77.249038840736091</v>
       </c>
       <c r="H50" s="4">
         <f t="shared" si="4"/>
-        <v>326.39377928702623</v>
+        <v>323.21026706605414</v>
       </c>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E51" s="4">
-        <v>333.51</v>
+        <v>366.51</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>0.13661765249543009</v>
+        <v>0.12431680795544704</v>
       </c>
       <c r="G51" s="10">
         <f t="shared" si="3"/>
-        <v>85.728806499754839</v>
+        <v>78.009915843314616</v>
       </c>
       <c r="H51" s="4">
         <f t="shared" si="4"/>
-        <v>358.68964662675171</v>
+        <v>326.39377928702623</v>
       </c>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E52" s="4">
-        <v>326.54000000000002</v>
+        <v>333.51</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>0.13953375783594932</v>
+        <v>0.13661765249543009</v>
       </c>
       <c r="G52" s="10">
         <f t="shared" si="3"/>
-        <v>87.55868884587872</v>
+        <v>85.728806499754839</v>
       </c>
       <c r="H52" s="4">
         <f t="shared" si="4"/>
-        <v>366.34588119828493</v>
+        <v>358.68964662675171</v>
       </c>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E53" s="4">
-        <v>324.17</v>
+        <v>326.54000000000002</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>0.14055388618240705</v>
+        <v>0.13953375783594932</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="3"/>
-        <v>88.19882856443607</v>
+        <v>87.55868884587872</v>
       </c>
       <c r="H53" s="4">
         <f t="shared" si="4"/>
-        <v>369.02422817190973</v>
+        <v>366.34588119828493</v>
       </c>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E54" s="4">
-        <v>318.82</v>
+        <v>324.17</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>0.14291246874020103</v>
+        <v>0.14055388618240705</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="3"/>
-        <v>89.678860346694805</v>
+        <v>88.19882856443607</v>
       </c>
       <c r="H54" s="4">
         <f t="shared" si="4"/>
-        <v>375.21668667739777</v>
+        <v>369.02422817190973</v>
       </c>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E55" s="4">
-        <v>311.29000000000002</v>
+        <v>318.82</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>0.14636947310787654</v>
+        <v>0.14291246874020103</v>
       </c>
       <c r="G55" s="10">
         <f t="shared" si="3"/>
-        <v>91.848161700450504</v>
+        <v>89.678860346694805</v>
       </c>
       <c r="H55" s="4">
         <f t="shared" si="4"/>
-        <v>384.29305164472987</v>
+        <v>375.21668667739777</v>
       </c>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E56" s="4">
-        <v>301.49</v>
+        <v>311.29000000000002</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>0.15112724562589436</v>
+        <v>0.14636947310787654</v>
       </c>
       <c r="G56" s="10">
         <f t="shared" si="3"/>
-        <v>94.833706775459348</v>
+        <v>91.848161700450504</v>
       </c>
       <c r="H56" s="4">
         <f t="shared" si="4"/>
-        <v>396.78458339078566</v>
+        <v>384.29305164472987</v>
       </c>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E57" s="4">
-        <v>300.27999999999997</v>
+        <v>301.49</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>0.15173622380361962</v>
+        <v>0.15112724562589436</v>
       </c>
       <c r="G57" s="10">
         <f t="shared" si="3"/>
-        <v>95.215846062785545</v>
+        <v>94.833706775459348</v>
       </c>
       <c r="H57" s="4">
         <f t="shared" si="4"/>
-        <v>398.38345559640334</v>
+        <v>396.78458339078566</v>
       </c>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E58" s="4">
-        <v>297.36</v>
+        <v>300.27999999999997</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>0.15322623514847622</v>
+        <v>0.15173622380361962</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" si="3"/>
-        <v>96.150841591785166</v>
+        <v>95.215846062785545</v>
       </c>
       <c r="H58" s="4">
         <f t="shared" si="4"/>
-        <v>402.29548038232434</v>
+        <v>398.38345559640334</v>
       </c>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E59" s="4">
-        <v>293.26</v>
+        <v>297.36</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>0.15536845558122789</v>
+        <v>0.15322623514847622</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" si="3"/>
-        <v>97.495104193320728</v>
+        <v>96.150841591785166</v>
       </c>
       <c r="H59" s="4">
         <f t="shared" si="4"/>
-        <v>407.9198801285138</v>
+        <v>402.29548038232434</v>
       </c>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E60" s="4">
-        <v>291.94</v>
+        <v>293.26</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>0.15607095048212266</v>
+        <v>0.15536845558122789</v>
       </c>
       <c r="G60" s="10">
         <f t="shared" si="3"/>
-        <v>97.93592606608631</v>
+        <v>97.495104193320728</v>
       </c>
       <c r="H60" s="4">
         <f t="shared" si="4"/>
-        <v>409.76428049081306</v>
+        <v>407.9198801285138</v>
       </c>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E61" s="4">
-        <v>285.47000000000003</v>
+        <v>291.94</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>0.15960820150541524</v>
+        <v>0.15607095048212266</v>
       </c>
       <c r="G61" s="10">
         <f t="shared" si="3"/>
-        <v>100.15558291846162</v>
+        <v>97.93592606608631</v>
       </c>
       <c r="H61" s="4">
         <f t="shared" si="4"/>
-        <v>419.05133305246773</v>
+        <v>409.76428049081306</v>
       </c>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E62" s="4">
-        <v>283.01</v>
+        <v>285.47000000000003</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>0.16099555946344968</v>
+        <v>0.15960820150541524</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="3"/>
-        <v>101.02616252334984</v>
+        <v>100.15558291846162</v>
       </c>
       <c r="H62" s="4">
         <f t="shared" si="4"/>
-        <v>422.69384137128714</v>
+        <v>419.05133305246773</v>
       </c>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E63" s="4">
-        <v>280.2</v>
+        <v>283.01</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>0.16261011164793324</v>
+        <v>0.16099555946344968</v>
       </c>
       <c r="G63" s="10">
         <f t="shared" si="3"/>
-        <v>102.03930855008294</v>
+        <v>101.02616252334984</v>
       </c>
       <c r="H63" s="4">
         <f t="shared" si="4"/>
-        <v>426.93284813164871</v>
+        <v>422.69384137128714</v>
       </c>
     </row>
     <row r="64" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E64" s="4">
-        <v>279.58</v>
+        <v>280.2</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>0.16297071780438835</v>
+        <v>0.16261011164793324</v>
       </c>
       <c r="G64" s="10">
         <f t="shared" si="3"/>
-        <v>102.26559215871393</v>
+        <v>102.03930855008294</v>
       </c>
       <c r="H64" s="4">
         <f t="shared" si="4"/>
-        <v>427.87961959542162</v>
+        <v>426.93284813164871</v>
       </c>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E65" s="4">
-        <v>279.3</v>
+        <v>279.58</v>
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>0.16313409697010703</v>
+        <v>0.16297071780438835</v>
       </c>
       <c r="G65" s="10">
         <f t="shared" si="3"/>
-        <v>102.3681140556149</v>
+        <v>102.26559215871393</v>
       </c>
       <c r="H65" s="4">
         <f t="shared" si="4"/>
-        <v>428.30857159501602</v>
+        <v>427.87961959542162</v>
       </c>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E66" s="4">
-        <v>271.61</v>
+        <v>279.3</v>
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>0.16775285624148922</v>
+        <v>0.16313409697010703</v>
       </c>
       <c r="G66" s="10">
         <f t="shared" si="3"/>
-        <v>105.26642706724067</v>
+        <v>102.3681140556149</v>
       </c>
       <c r="H66" s="4">
         <f t="shared" si="4"/>
-        <v>440.43512406202996</v>
+        <v>428.30857159501602</v>
       </c>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E67" s="4">
-        <v>270.23</v>
+        <v>271.61</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" si="2"/>
-        <v>0.1686095299698438</v>
+        <v>0.16775285624148922</v>
       </c>
       <c r="G67" s="10">
         <f t="shared" si="3"/>
-        <v>105.80399754184671</v>
+        <v>105.26642706724067</v>
       </c>
       <c r="H67" s="4">
         <f t="shared" si="4"/>
-        <v>442.68432093582487</v>
+        <v>440.43512406202996</v>
       </c>
     </row>
     <row r="68" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E68" s="4">
-        <v>268.75</v>
+        <v>270.23</v>
       </c>
       <c r="F68" s="11">
         <f t="shared" si="2"/>
-        <v>0.16953805873023589</v>
+        <v>0.1686095299698438</v>
       </c>
       <c r="G68" s="10">
         <f t="shared" si="3"/>
-        <v>106.38665769575159</v>
+        <v>105.80399754184671</v>
       </c>
       <c r="H68" s="4">
         <f t="shared" si="4"/>
-        <v>445.12217319623431</v>
+        <v>442.68432093582487</v>
       </c>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E69" s="4">
-        <v>263.24</v>
+        <v>268.75</v>
       </c>
       <c r="F69" s="11">
         <f t="shared" si="2"/>
-        <v>0.17308673941555572</v>
+        <v>0.16953805873023589</v>
       </c>
       <c r="G69" s="10">
         <f t="shared" si="3"/>
-        <v>108.61348676391596</v>
+        <v>106.38665769575159</v>
       </c>
       <c r="H69" s="4">
         <f t="shared" si="4"/>
-        <v>454.43923433554153</v>
+        <v>445.12217319623431</v>
       </c>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E70" s="4">
-        <v>262.18</v>
+        <v>263.24</v>
       </c>
       <c r="F70" s="11">
         <f t="shared" si="2"/>
-        <v>0.17378653323575746</v>
+        <v>0.17308673941555572</v>
       </c>
       <c r="G70" s="10">
         <f t="shared" si="3"/>
-        <v>109.05261368423693</v>
+        <v>108.61348676391596</v>
       </c>
       <c r="H70" s="4">
         <f t="shared" si="4"/>
-        <v>456.27654301048119</v>
+        <v>454.43923433554153</v>
       </c>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E71" s="4">
-        <v>261.04000000000002</v>
+        <v>262.18</v>
       </c>
       <c r="F71" s="11">
         <f t="shared" si="2"/>
-        <v>0.17454548453781371</v>
+        <v>0.17378653323575746</v>
       </c>
       <c r="G71" s="10">
         <f t="shared" si="3"/>
-        <v>109.52886245683895</v>
+        <v>109.05261368423693</v>
       </c>
       <c r="H71" s="4">
         <f t="shared" si="4"/>
-        <v>458.26916965402989</v>
+        <v>456.27654301048119</v>
       </c>
     </row>
     <row r="72" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E72" s="4">
-        <v>260.12</v>
+        <v>261.04000000000002</v>
       </c>
       <c r="F72" s="11">
         <f t="shared" si="2"/>
-        <v>0.1751628220965358</v>
+        <v>0.17454548453781371</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="3"/>
-        <v>109.91624733097508</v>
+        <v>109.52886245683895</v>
       </c>
       <c r="H72" s="4">
         <f t="shared" si="4"/>
-        <v>459.88998941445476</v>
+        <v>458.26916965402989</v>
       </c>
     </row>
     <row r="73" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E73" s="4">
-        <v>258.79000000000002</v>
+        <v>260.12</v>
       </c>
       <c r="F73" s="11">
         <f t="shared" si="2"/>
-        <v>0.17606303676243629</v>
+        <v>0.1751628220965358</v>
       </c>
       <c r="G73" s="10">
         <f t="shared" si="3"/>
-        <v>110.48114013575963</v>
+        <v>109.91624733097508</v>
       </c>
       <c r="H73" s="4">
         <f t="shared" si="4"/>
-        <v>462.25350301977647</v>
+        <v>459.88998941445476</v>
       </c>
     </row>
     <row r="74" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E74" s="4">
-        <v>258.60000000000002</v>
+        <v>258.79000000000002</v>
       </c>
       <c r="F74" s="11">
         <f t="shared" si="2"/>
-        <v>0.1761923947554172</v>
+        <v>0.17606303676243629</v>
       </c>
       <c r="G74" s="10">
         <f t="shared" si="3"/>
-        <v>110.5623134405771</v>
+        <v>110.48114013575963</v>
       </c>
       <c r="H74" s="4">
         <f t="shared" si="4"/>
-        <v>462.59313243034785</v>
+        <v>462.25350301977647</v>
       </c>
     </row>
     <row r="75" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E75" s="4">
-        <v>258.25</v>
+        <v>258.60000000000002</v>
       </c>
       <c r="F75" s="11">
         <f t="shared" si="2"/>
-        <v>0.17643118406099087</v>
+        <v>0.1761923947554172</v>
       </c>
       <c r="G75" s="10">
         <f t="shared" si="3"/>
-        <v>110.71215587892833</v>
+        <v>110.5623134405771</v>
       </c>
       <c r="H75" s="4">
         <f t="shared" si="4"/>
-        <v>463.22007375213155</v>
+        <v>462.59313243034785</v>
       </c>
     </row>
     <row r="76" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E76" s="4">
-        <v>255.93</v>
+        <v>258.25</v>
       </c>
       <c r="F76" s="11">
         <f t="shared" si="2"/>
-        <v>0.17803052898742192</v>
+        <v>0.17643118406099087</v>
       </c>
       <c r="G76" s="10">
         <f t="shared" si="3"/>
-        <v>111.71575921436815</v>
+        <v>110.71215587892833</v>
       </c>
       <c r="H76" s="4">
         <f t="shared" si="4"/>
-        <v>467.41915385647621</v>
+        <v>463.22007375213155</v>
       </c>
     </row>
     <row r="77" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E77" s="4">
-        <v>255.71</v>
+        <v>255.93</v>
       </c>
       <c r="F77" s="11">
         <f t="shared" si="2"/>
-        <v>0.17818369748445853</v>
+        <v>0.17803052898742192</v>
       </c>
       <c r="G77" s="10">
         <f t="shared" si="3"/>
-        <v>111.81187382477509</v>
+        <v>111.71575921436815</v>
       </c>
       <c r="H77" s="4">
         <f t="shared" si="4"/>
-        <v>467.82129774544586</v>
+        <v>467.41915385647621</v>
       </c>
     </row>
     <row r="78" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E78" s="4">
-        <v>250.86</v>
+        <v>255.71</v>
       </c>
       <c r="F78" s="11">
         <f t="shared" si="2"/>
-        <v>0.1816286107141469</v>
+        <v>0.17818369748445853</v>
       </c>
       <c r="G78" s="10">
         <f t="shared" si="3"/>
-        <v>113.97358788062361</v>
+        <v>111.81187382477509</v>
       </c>
       <c r="H78" s="4">
         <f t="shared" si="4"/>
-        <v>476.86591742999269</v>
+        <v>467.82129774544586</v>
       </c>
     </row>
     <row r="79" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E79" s="4">
-        <v>242.67</v>
+        <v>250.86</v>
       </c>
       <c r="F79" s="11">
         <f t="shared" si="2"/>
-        <v>0.18775849212408166</v>
+        <v>0.1816286107141469</v>
       </c>
       <c r="G79" s="10">
         <f t="shared" si="3"/>
-        <v>117.82014363429036</v>
+        <v>113.97358788062361</v>
       </c>
       <c r="H79" s="4">
         <f t="shared" si="4"/>
-        <v>492.95992107177642</v>
+        <v>476.86591742999269</v>
       </c>
     </row>
     <row r="80" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E80" s="4">
-        <v>242.21</v>
+        <v>242.67</v>
       </c>
       <c r="F80" s="11">
         <f t="shared" si="2"/>
-        <v>0.18811507899653562</v>
+        <v>0.18775849212408166</v>
       </c>
       <c r="G80" s="10">
         <f t="shared" si="3"/>
-        <v>118.04390510603707</v>
-      </c>
-      <c r="H80" s="12">
-        <f t="shared" si="4"/>
-        <v>493.89613990540425</v>
+        <v>117.82014363429036</v>
+      </c>
+      <c r="H80" s="4">
+        <f t="shared" si="4"/>
+        <v>492.95992107177642</v>
       </c>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E81" s="4">
-        <v>240.46</v>
+        <v>242.21</v>
       </c>
       <c r="F81" s="11">
         <f t="shared" si="2"/>
-        <v>0.18948412743803913</v>
+        <v>0.18811507899653562</v>
       </c>
       <c r="G81" s="10">
         <f t="shared" si="3"/>
-        <v>118.9029953245165</v>
-      </c>
-      <c r="H81" s="4">
-        <f t="shared" si="4"/>
-        <v>497.49057658857174</v>
+        <v>118.04390510603707</v>
+      </c>
+      <c r="H81" s="12">
+        <f t="shared" si="4"/>
+        <v>493.89613990540425</v>
       </c>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E82" s="4">
+        <v>240.46</v>
+      </c>
+      <c r="F82" s="11">
+        <f t="shared" si="2"/>
+        <v>0.18948412743803913</v>
+      </c>
+      <c r="G82" s="10">
+        <f t="shared" si="3"/>
+        <v>118.9029953245165</v>
+      </c>
+      <c r="H82" s="4">
+        <f t="shared" si="4"/>
+        <v>497.49057658857174</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E83" s="4">
         <v>240.19</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <f t="shared" si="2"/>
         <v>0.18969712845560138</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G83" s="10">
         <f t="shared" si="3"/>
         <v>119.03665538004597</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H83" s="12">
         <f t="shared" si="4"/>
         <v>498.04981076018146</v>
       </c>

--- a/Reactions.xlsx
+++ b/Reactions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustam/Documents/Projects/Collaborations/Li-Colab/Pinacol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E902BC88-5EAE-1440-A55E-74D671AD2716}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92298F75-5562-C146-B4D2-907E46C25F11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{880FC916-DB74-BB43-B11A-E924C9F7E5B9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>A+A-&gt;AA</t>
   </si>
@@ -220,6 +220,21 @@
   </si>
   <si>
     <t>B trans (sr)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S-ads</t>
+  </si>
+  <si>
+    <t>T-0</t>
+  </si>
+  <si>
+    <t>S-1</t>
+  </si>
+  <si>
+    <t>n-&gt;pi*</t>
   </si>
 </sst>
 </file>
@@ -228,7 +243,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -294,7 +309,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -611,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D290D77-F557-2D4F-AAA0-8B1C8DC92AC2}">
-  <dimension ref="B1:P83"/>
+  <dimension ref="B1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1311,11 +1326,11 @@
         <v>375.53</v>
       </c>
       <c r="F49" s="11">
-        <f t="shared" ref="F49:F83" si="2">$G$1/$E49</f>
+        <f t="shared" ref="F49:F82" si="2">$G$1/$E49</f>
         <v>0.12133079456701434</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" ref="G49:G83" si="3">$F49*$F$1</f>
+        <f t="shared" ref="G49:G108" si="3">$F49*$F$1</f>
         <v>76.136165567952602</v>
       </c>
       <c r="H49" s="4">
@@ -1850,7 +1865,7 @@
         <v>492.95992107177642</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E81" s="4">
         <v>242.21</v>
       </c>
@@ -1867,7 +1882,7 @@
         <v>493.89613990540425</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E82" s="4">
         <v>240.46</v>
       </c>
@@ -1884,12 +1899,12 @@
         <v>497.49057658857174</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E83" s="4">
         <v>240.19</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="2"/>
+        <f>$G$1/$E83</f>
         <v>0.18969712845560138</v>
       </c>
       <c r="G83" s="10">
@@ -1899,6 +1914,437 @@
       <c r="H83" s="12">
         <f t="shared" si="4"/>
         <v>498.04981076018146</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F84" s="11"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="4">
+        <v>374.47</v>
+      </c>
+      <c r="F85" s="11">
+        <f t="shared" ref="F85:F108" si="5">$G$1/$E85</f>
+        <v>0.12167424168491706</v>
+      </c>
+      <c r="G85" s="10">
+        <f t="shared" si="3"/>
+        <v>76.351681725460622</v>
+      </c>
+      <c r="H85" s="12">
+        <f t="shared" ref="H85:H108" si="6">F85*$E$1</f>
+        <v>319.45572154374975</v>
+      </c>
+      <c r="I85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E86" s="4">
+        <v>369.91</v>
+      </c>
+      <c r="F86" s="11">
+        <f t="shared" si="5"/>
+        <v>0.12317415934619472</v>
+      </c>
+      <c r="G86" s="10">
+        <f t="shared" si="3"/>
+        <v>77.292893557171297</v>
+      </c>
+      <c r="H86" s="12">
+        <f t="shared" si="6"/>
+        <v>323.39375536343425</v>
+      </c>
+      <c r="I86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87" s="4">
+        <v>323.95</v>
+      </c>
+      <c r="F87" s="11">
+        <f t="shared" si="5"/>
+        <v>0.14064933873669053</v>
+      </c>
+      <c r="G87" s="10">
+        <f t="shared" si="3"/>
+        <v>88.258725901321938</v>
+      </c>
+      <c r="H87" s="12">
+        <f t="shared" si="6"/>
+        <v>369.274838853181</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E88" s="4">
+        <v>310.29000000000002</v>
+      </c>
+      <c r="F88" s="11">
+        <f t="shared" si="5"/>
+        <v>0.14684119141368041</v>
+      </c>
+      <c r="G88" s="10">
+        <f t="shared" si="3"/>
+        <v>92.144169182807175</v>
+      </c>
+      <c r="H88" s="12">
+        <f t="shared" si="6"/>
+        <v>385.53154805661791</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E89" s="4">
+        <v>278.02</v>
+      </c>
+      <c r="F89" s="11">
+        <f t="shared" si="5"/>
+        <v>0.16388516395853139</v>
+      </c>
+      <c r="G89" s="10">
+        <f t="shared" si="3"/>
+        <v>102.83941535045408</v>
+      </c>
+      <c r="H89" s="12">
+        <f t="shared" si="6"/>
+        <v>430.28049797312417</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E90" s="4">
+        <v>261.47000000000003</v>
+      </c>
+      <c r="F90" s="11">
+        <f t="shared" si="5"/>
+        <v>0.17425843608731742</v>
+      </c>
+      <c r="G90" s="10">
+        <f t="shared" si="3"/>
+        <v>109.34873697071647</v>
+      </c>
+      <c r="H90" s="12">
+        <f t="shared" si="6"/>
+        <v>457.51552394725189</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E91" s="4">
+        <v>240.8</v>
+      </c>
+      <c r="F91" s="11">
+        <f t="shared" si="5"/>
+        <v>0.1892165834042811</v>
+      </c>
+      <c r="G91" s="10">
+        <f t="shared" si="3"/>
+        <v>118.73510903543703</v>
+      </c>
+      <c r="H91" s="12">
+        <f t="shared" si="6"/>
+        <v>496.78813972794001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="4">
+        <v>239.36</v>
+      </c>
+      <c r="F92" s="11">
+        <f t="shared" si="5"/>
+        <v>0.19035491846486835</v>
+      </c>
+      <c r="G92" s="10">
+        <f t="shared" si="3"/>
+        <v>119.44942453097107</v>
+      </c>
+      <c r="H92" s="12">
+        <f t="shared" si="6"/>
+        <v>499.77683842951183</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E93" s="4">
+        <v>230.01</v>
+      </c>
+      <c r="F93" s="11">
+        <f t="shared" si="5"/>
+        <v>0.19809292328051342</v>
+      </c>
+      <c r="G93" s="10">
+        <f t="shared" si="3"/>
+        <v>124.3050921948317</v>
+      </c>
+      <c r="H93" s="12">
+        <f t="shared" si="6"/>
+        <v>520.09297007298801</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E94" s="4">
+        <v>214.78</v>
+      </c>
+      <c r="F94" s="11">
+        <f t="shared" si="5"/>
+        <v>0.21213964653948642</v>
+      </c>
+      <c r="G94" s="10">
+        <f t="shared" si="3"/>
+        <v>133.11953746034658</v>
+      </c>
+      <c r="H94" s="12">
+        <f t="shared" si="6"/>
+        <v>556.97264198942162</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E95" s="4">
+        <v>213.76</v>
+      </c>
+      <c r="F95" s="11">
+        <f t="shared" si="5"/>
+        <v>0.21315191468820591</v>
+      </c>
+      <c r="G95" s="10">
+        <f t="shared" si="3"/>
+        <v>133.75474483408141</v>
+      </c>
+      <c r="H95" s="12">
+        <f t="shared" si="6"/>
+        <v>559.63035201388459</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E96" s="4">
+        <v>196.39</v>
+      </c>
+      <c r="F96" s="11">
+        <f t="shared" si="5"/>
+        <v>0.23200444668135289</v>
+      </c>
+      <c r="G96" s="10">
+        <f t="shared" si="3"/>
+        <v>145.58487833256908</v>
+      </c>
+      <c r="H96" s="12">
+        <f t="shared" si="6"/>
+        <v>609.12767476189197</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E97" s="4">
+        <v>192.51</v>
+      </c>
+      <c r="F97" s="11">
+        <f t="shared" si="5"/>
+        <v>0.23668044924290113</v>
+      </c>
+      <c r="G97" s="10">
+        <f t="shared" si="3"/>
+        <v>148.51911202396366</v>
+      </c>
+      <c r="H97" s="12">
+        <f t="shared" si="6"/>
+        <v>621.40451948723694</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E98" s="4">
+        <v>191.86</v>
+      </c>
+      <c r="F98" s="11">
+        <f t="shared" si="5"/>
+        <v>0.23748229586026731</v>
+      </c>
+      <c r="G98" s="10">
+        <f t="shared" si="3"/>
+        <v>149.02227799298049</v>
+      </c>
+      <c r="H98" s="12">
+        <f t="shared" si="6"/>
+        <v>623.50976778113181</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E99" s="4">
+        <v>189.41</v>
+      </c>
+      <c r="F99" s="11">
+        <f t="shared" si="5"/>
+        <v>0.24055410634998622</v>
+      </c>
+      <c r="G99" s="10">
+        <f t="shared" si="3"/>
+        <v>150.9498667215735</v>
+      </c>
+      <c r="H99" s="12">
+        <f t="shared" si="6"/>
+        <v>631.57480622188882</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E100" s="4">
+        <v>187.27</v>
+      </c>
+      <c r="F100" s="11">
+        <f t="shared" si="5"/>
+        <v>0.2433030025297746</v>
+      </c>
+      <c r="G100" s="10">
+        <f t="shared" si="3"/>
+        <v>152.67482381445635</v>
+      </c>
+      <c r="H100" s="12">
+        <f t="shared" si="6"/>
+        <v>638.79203314192318</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E101" s="4">
+        <v>187.05</v>
+      </c>
+      <c r="F101" s="11">
+        <f t="shared" si="5"/>
+        <v>0.24358916484229293</v>
+      </c>
+      <c r="G101" s="10">
+        <f t="shared" si="3"/>
+        <v>152.85439324102239</v>
+      </c>
+      <c r="H101" s="12">
+        <f t="shared" si="6"/>
+        <v>639.54335229344008</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E102" s="4">
+        <v>185.34</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" si="5"/>
+        <v>0.24583658834439889</v>
+      </c>
+      <c r="G102" s="10">
+        <f t="shared" si="3"/>
+        <v>154.2646717154054</v>
+      </c>
+      <c r="H102" s="12">
+        <f t="shared" si="6"/>
+        <v>645.44396269821925</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E103" s="4">
+        <v>184.37</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="5"/>
+        <v>0.24712997387726252</v>
+      </c>
+      <c r="G103" s="10">
+        <f t="shared" si="3"/>
+        <v>155.07628277774714</v>
+      </c>
+      <c r="H103" s="12">
+        <f t="shared" si="6"/>
+        <v>648.83974641475277</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E104" s="4">
+        <v>182.27</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" si="5"/>
+        <v>0.24997724959538536</v>
+      </c>
+      <c r="G104" s="10">
+        <f t="shared" si="3"/>
+        <v>156.86297391635068</v>
+      </c>
+      <c r="H104" s="12">
+        <f t="shared" si="6"/>
+        <v>656.31526881268428</v>
+      </c>
+    </row>
+    <row r="105" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E105" s="4">
+        <v>176.48</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" si="5"/>
+        <v>0.25817856575108167</v>
+      </c>
+      <c r="G105" s="10">
+        <f t="shared" si="3"/>
+        <v>162.0093736158955</v>
+      </c>
+      <c r="H105" s="12">
+        <f t="shared" si="6"/>
+        <v>677.8478243794649</v>
+      </c>
+    </row>
+    <row r="106" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E106" s="4">
+        <v>167.76</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="5"/>
+        <v>0.27159843397562528</v>
+      </c>
+      <c r="G106" s="10">
+        <f t="shared" si="3"/>
+        <v>170.43046170561064</v>
+      </c>
+      <c r="H106" s="12">
+        <f t="shared" si="6"/>
+        <v>713.08168840300414</v>
+      </c>
+    </row>
+    <row r="107" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E107" s="4">
+        <v>161.12</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="5"/>
+        <v>0.28279141809676572</v>
+      </c>
+      <c r="G107" s="10">
+        <f t="shared" si="3"/>
+        <v>177.45415997848337</v>
+      </c>
+      <c r="H107" s="12">
+        <f t="shared" si="6"/>
+        <v>742.46886821305839</v>
+      </c>
+    </row>
+    <row r="108" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E108" s="4">
+        <v>158.4</v>
+      </c>
+      <c r="F108" s="11">
+        <f t="shared" si="5"/>
+        <v>0.2876474323469122</v>
+      </c>
+      <c r="G108" s="10">
+        <f t="shared" si="3"/>
+        <v>180.50135262457854</v>
+      </c>
+      <c r="H108" s="12">
+        <f t="shared" si="6"/>
+        <v>755.21833362681798</v>
       </c>
     </row>
   </sheetData>
